--- a/mpcereform/spreadsheets/provincial_inspections.xlsx
+++ b/mpcereform/spreadsheets/provincial_inspections.xlsx
@@ -12,16 +12,17 @@
     <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Various CS 1778-9" sheetId="1" r:id="rId1"/>
-    <sheet name="Orleans 1778" sheetId="2" r:id="rId2"/>
-    <sheet name="Besancon 1779" sheetId="3" r:id="rId3"/>
+    <sheet name="Amalgamated sheet" sheetId="4" r:id="rId1"/>
+    <sheet name="Various CS 1778-9" sheetId="1" r:id="rId2"/>
+    <sheet name="Orleans 1778" sheetId="2" r:id="rId3"/>
+    <sheet name="Besancon 1779" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="439">
   <si>
     <r>
       <t>Registre de livres visit</t>
@@ -2161,6 +2162,201 @@
   </si>
   <si>
     <t>Note: this appears not to be an STN order. Have checked for matching orders against Bibliographie instructive [where got accurate title] and against Ecole des filles for which Bilan evidence across 1778 is near perfect well-stocked balance, so very unlikely an order of 30 could have gone out.</t>
+  </si>
+  <si>
+    <t>Orleans</t>
+  </si>
+  <si>
+    <t>Imprint_Place_of_Publication</t>
+  </si>
+  <si>
+    <t>Imprint_publisher</t>
+  </si>
+  <si>
+    <t>imprint_date</t>
+  </si>
+  <si>
+    <t>Ballot mark/ref</t>
+  </si>
+  <si>
+    <t>Seized  as contrary to rules and awaiting decision from keeper of seals</t>
+  </si>
+  <si>
+    <t>consignment</t>
+  </si>
+  <si>
+    <t>1 Ballot</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Addressee</t>
+  </si>
+  <si>
+    <t>Place_inspected</t>
+  </si>
+  <si>
+    <t>Place_of_Origin</t>
+  </si>
+  <si>
+    <t>Baune [Beaune] en Bourgogne [sic]</t>
+  </si>
+  <si>
+    <t>not stated [no?]</t>
+  </si>
+  <si>
+    <t>'vu et visité' par l'inspecteur, les syndic et Adjoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confiscation made at Orléans following procès verbal des registres de la chambre syndicale de 5 juin 1778</t>
+  </si>
+  <si>
+    <t>inspected at Chambre Syndicale</t>
+  </si>
+  <si>
+    <t>MS_Reference</t>
+  </si>
+  <si>
+    <t>MS_Fr_21927</t>
+  </si>
+  <si>
+    <t>25 [?]</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Montalembert</t>
+  </si>
+  <si>
+    <t>Liège</t>
+  </si>
+  <si>
+    <t>Lausanne</t>
+  </si>
+  <si>
+    <t>Brantome</t>
+  </si>
+  <si>
+    <t>Balsaque</t>
+  </si>
+  <si>
+    <t>Illustrated edition ('fig.')</t>
+  </si>
+  <si>
+    <t>Academie des Dames</t>
+  </si>
+  <si>
+    <t>Lettres de Madame de Pompadour</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>émoires de Madame de Pompadour</t>
+    </r>
+  </si>
+  <si>
+    <t>illustrated edition ('avec estampes')</t>
+  </si>
+  <si>
+    <t>Histoire du Ciel</t>
+  </si>
+  <si>
+    <t>Histoire des variations</t>
+  </si>
+  <si>
+    <t>Oeuvres de Grecourt</t>
+  </si>
+  <si>
+    <t>consignment contained tomes 14-25 only</t>
+  </si>
+  <si>
+    <t>Histoire Ecclesiastique</t>
+  </si>
+  <si>
+    <t>L'Esprit de Henry IV</t>
+  </si>
+  <si>
+    <t>Dictionnaire de Richelet</t>
+  </si>
+  <si>
+    <t>consignment only contained vol. 1.</t>
+  </si>
+  <si>
+    <t>Encyclopedie</t>
+  </si>
+  <si>
+    <t>La Luciade</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <r>
+      <t>Eloge et pens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ées de Paschal</t>
+    </r>
+  </si>
+  <si>
+    <t>Aventures de Telemaque</t>
+  </si>
+  <si>
+    <t>La Raison par alphabet</t>
+  </si>
+  <si>
+    <t>Yverdon</t>
+  </si>
+  <si>
+    <r>
+      <t>Eloge de Ren</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>é Descartes</t>
+    </r>
+  </si>
+  <si>
+    <t>Des maladies des gens de Cour</t>
+  </si>
+  <si>
+    <t>Source says last 6 vols only. But the previous entry appears to list complete sets of the work.</t>
+  </si>
+  <si>
+    <t>Telemaque</t>
+  </si>
+  <si>
+    <t>French, Latin</t>
+  </si>
+  <si>
+    <t>Voyage en Dalmatie</t>
   </si>
 </sst>
 </file>
@@ -2202,9 +2398,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2509,10 +2706,8168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W230"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="43" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" t="s">
+        <v>386</v>
+      </c>
+      <c r="M1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R1" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>427</v>
+      </c>
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>427</v>
+      </c>
+      <c r="R3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>427</v>
+      </c>
+      <c r="R4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T4" t="s">
+        <v>401</v>
+      </c>
+      <c r="U4" t="s">
+        <v>141</v>
+      </c>
+      <c r="V4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>427</v>
+      </c>
+      <c r="R5" t="s">
+        <v>146</v>
+      </c>
+      <c r="T5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>427</v>
+      </c>
+      <c r="R6" t="s">
+        <v>146</v>
+      </c>
+      <c r="T6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>427</v>
+      </c>
+      <c r="R7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>427</v>
+      </c>
+      <c r="R8" t="s">
+        <v>146</v>
+      </c>
+      <c r="T8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>427</v>
+      </c>
+      <c r="R9" t="s">
+        <v>146</v>
+      </c>
+      <c r="T9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>427</v>
+      </c>
+      <c r="R10" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>427</v>
+      </c>
+      <c r="R11" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>427</v>
+      </c>
+      <c r="R12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>427</v>
+      </c>
+      <c r="R13" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>427</v>
+      </c>
+      <c r="R14" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>427</v>
+      </c>
+      <c r="R15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>427</v>
+      </c>
+      <c r="R16" t="s">
+        <v>146</v>
+      </c>
+      <c r="T16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>427</v>
+      </c>
+      <c r="R17" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>427</v>
+      </c>
+      <c r="R18" t="s">
+        <v>146</v>
+      </c>
+      <c r="T18" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>437</v>
+      </c>
+      <c r="R19" t="s">
+        <v>146</v>
+      </c>
+      <c r="T19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>427</v>
+      </c>
+      <c r="R20" t="s">
+        <v>146</v>
+      </c>
+      <c r="T20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>437</v>
+      </c>
+      <c r="R21" t="s">
+        <v>146</v>
+      </c>
+      <c r="T21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>427</v>
+      </c>
+      <c r="R22" t="s">
+        <v>146</v>
+      </c>
+      <c r="T22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>427</v>
+      </c>
+      <c r="R23" t="s">
+        <v>146</v>
+      </c>
+      <c r="T23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" t="s">
+        <v>412</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>427</v>
+      </c>
+      <c r="R24" t="s">
+        <v>174</v>
+      </c>
+      <c r="T24" t="s">
+        <v>401</v>
+      </c>
+      <c r="W24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" t="s">
+        <v>413</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>427</v>
+      </c>
+      <c r="R25" t="s">
+        <v>174</v>
+      </c>
+      <c r="T25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>414</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>427</v>
+      </c>
+      <c r="R26" t="s">
+        <v>174</v>
+      </c>
+      <c r="T26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>427</v>
+      </c>
+      <c r="R27" t="s">
+        <v>182</v>
+      </c>
+      <c r="T27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>427</v>
+      </c>
+      <c r="R28" t="s">
+        <v>182</v>
+      </c>
+      <c r="T28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>427</v>
+      </c>
+      <c r="R29" t="s">
+        <v>182</v>
+      </c>
+      <c r="T29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>427</v>
+      </c>
+      <c r="R30" t="s">
+        <v>182</v>
+      </c>
+      <c r="T30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>427</v>
+      </c>
+      <c r="R31" t="s">
+        <v>182</v>
+      </c>
+      <c r="T31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" t="s">
+        <v>416</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>427</v>
+      </c>
+      <c r="R32" t="s">
+        <v>182</v>
+      </c>
+      <c r="T32" t="s">
+        <v>401</v>
+      </c>
+      <c r="W32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>427</v>
+      </c>
+      <c r="R33" t="s">
+        <v>182</v>
+      </c>
+      <c r="T33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>427</v>
+      </c>
+      <c r="R34" t="s">
+        <v>182</v>
+      </c>
+      <c r="T34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="K35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>427</v>
+      </c>
+      <c r="R35" t="s">
+        <v>182</v>
+      </c>
+      <c r="T35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36" t="s">
+        <v>418</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>427</v>
+      </c>
+      <c r="R36" t="s">
+        <v>182</v>
+      </c>
+      <c r="T36" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" t="s">
+        <v>200</v>
+      </c>
+      <c r="K37" t="s">
+        <v>420</v>
+      </c>
+      <c r="O37" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>427</v>
+      </c>
+      <c r="R37" t="s">
+        <v>183</v>
+      </c>
+      <c r="T37" t="s">
+        <v>401</v>
+      </c>
+      <c r="W37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" t="s">
+        <v>436</v>
+      </c>
+      <c r="L38" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>427</v>
+      </c>
+      <c r="R38" t="s">
+        <v>216</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="K39" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>427</v>
+      </c>
+      <c r="R39" t="s">
+        <v>216</v>
+      </c>
+      <c r="T39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="J40" t="s">
+        <v>207</v>
+      </c>
+      <c r="K40" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>427</v>
+      </c>
+      <c r="R40" t="s">
+        <v>216</v>
+      </c>
+      <c r="T40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>427</v>
+      </c>
+      <c r="R41" t="s">
+        <v>216</v>
+      </c>
+      <c r="T41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" t="s">
+        <v>421</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>427</v>
+      </c>
+      <c r="R42" t="s">
+        <v>216</v>
+      </c>
+      <c r="T42" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="K43" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>427</v>
+      </c>
+      <c r="R43" t="s">
+        <v>216</v>
+      </c>
+      <c r="T43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="J44" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>427</v>
+      </c>
+      <c r="R44" t="s">
+        <v>216</v>
+      </c>
+      <c r="T44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="K45" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>427</v>
+      </c>
+      <c r="R45" t="s">
+        <v>216</v>
+      </c>
+      <c r="T45" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="J46" t="s">
+        <v>215</v>
+      </c>
+      <c r="K46" t="s">
+        <v>422</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>427</v>
+      </c>
+      <c r="R46" t="s">
+        <v>216</v>
+      </c>
+      <c r="T46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="K47" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>427</v>
+      </c>
+      <c r="R47" t="s">
+        <v>216</v>
+      </c>
+      <c r="T47" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>181</v>
+      </c>
+      <c r="K48" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>427</v>
+      </c>
+      <c r="R48" t="s">
+        <v>216</v>
+      </c>
+      <c r="T48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>427</v>
+      </c>
+      <c r="R49" t="s">
+        <v>216</v>
+      </c>
+      <c r="T49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="K50" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>427</v>
+      </c>
+      <c r="R50" t="s">
+        <v>216</v>
+      </c>
+      <c r="T50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>181</v>
+      </c>
+      <c r="K51" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>427</v>
+      </c>
+      <c r="R51" t="s">
+        <v>216</v>
+      </c>
+      <c r="T51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>181</v>
+      </c>
+      <c r="J52" t="s">
+        <v>153</v>
+      </c>
+      <c r="K52" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>427</v>
+      </c>
+      <c r="R52" t="s">
+        <v>216</v>
+      </c>
+      <c r="T52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J53" t="s">
+        <v>380</v>
+      </c>
+      <c r="K53" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>427</v>
+      </c>
+      <c r="R53" t="s">
+        <v>216</v>
+      </c>
+      <c r="T53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>181</v>
+      </c>
+      <c r="K54" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>427</v>
+      </c>
+      <c r="R54" t="s">
+        <v>216</v>
+      </c>
+      <c r="T54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" t="s">
+        <v>284</v>
+      </c>
+      <c r="K55" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>427</v>
+      </c>
+      <c r="R55" t="s">
+        <v>216</v>
+      </c>
+      <c r="T55" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>218</v>
+      </c>
+      <c r="J56" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>427</v>
+      </c>
+      <c r="R56" t="s">
+        <v>217</v>
+      </c>
+      <c r="T56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>218</v>
+      </c>
+      <c r="K57" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>427</v>
+      </c>
+      <c r="R57" t="s">
+        <v>217</v>
+      </c>
+      <c r="T57" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>218</v>
+      </c>
+      <c r="K58" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>427</v>
+      </c>
+      <c r="R58" t="s">
+        <v>217</v>
+      </c>
+      <c r="T58" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>218</v>
+      </c>
+      <c r="K59" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>427</v>
+      </c>
+      <c r="R59" t="s">
+        <v>217</v>
+      </c>
+      <c r="T59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>218</v>
+      </c>
+      <c r="K60" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>427</v>
+      </c>
+      <c r="R60" t="s">
+        <v>217</v>
+      </c>
+      <c r="T60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>218</v>
+      </c>
+      <c r="K61" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>428</v>
+      </c>
+      <c r="R61" t="s">
+        <v>217</v>
+      </c>
+      <c r="T61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>218</v>
+      </c>
+      <c r="J62" t="s">
+        <v>153</v>
+      </c>
+      <c r="K62" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>427</v>
+      </c>
+      <c r="R62" t="s">
+        <v>217</v>
+      </c>
+      <c r="T62" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>218</v>
+      </c>
+      <c r="J63" t="s">
+        <v>235</v>
+      </c>
+      <c r="K63" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>427</v>
+      </c>
+      <c r="R63" t="s">
+        <v>217</v>
+      </c>
+      <c r="T63" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64">
+        <v>38</v>
+      </c>
+      <c r="E64" t="s">
+        <v>218</v>
+      </c>
+      <c r="K64" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>427</v>
+      </c>
+      <c r="R64" t="s">
+        <v>217</v>
+      </c>
+      <c r="T64" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65">
+        <v>39</v>
+      </c>
+      <c r="E65" t="s">
+        <v>218</v>
+      </c>
+      <c r="K65" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>427</v>
+      </c>
+      <c r="R65" t="s">
+        <v>217</v>
+      </c>
+      <c r="T65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66">
+        <v>40</v>
+      </c>
+      <c r="E66" t="s">
+        <v>218</v>
+      </c>
+      <c r="K66" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>427</v>
+      </c>
+      <c r="R66" t="s">
+        <v>217</v>
+      </c>
+      <c r="T66" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>218</v>
+      </c>
+      <c r="K67" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>427</v>
+      </c>
+      <c r="R67" t="s">
+        <v>217</v>
+      </c>
+      <c r="T67" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68">
+        <v>42</v>
+      </c>
+      <c r="E68" t="s">
+        <v>218</v>
+      </c>
+      <c r="K68" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>427</v>
+      </c>
+      <c r="R68" t="s">
+        <v>217</v>
+      </c>
+      <c r="T68" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69">
+        <v>43</v>
+      </c>
+      <c r="E69" t="s">
+        <v>218</v>
+      </c>
+      <c r="J69" t="s">
+        <v>250</v>
+      </c>
+      <c r="K69" t="s">
+        <v>425</v>
+      </c>
+      <c r="L69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N69">
+        <v>1776</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>427</v>
+      </c>
+      <c r="R69" t="s">
+        <v>217</v>
+      </c>
+      <c r="T69" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s">
+        <v>243</v>
+      </c>
+      <c r="K70" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>427</v>
+      </c>
+      <c r="R70" t="s">
+        <v>242</v>
+      </c>
+      <c r="T70" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s">
+        <v>243</v>
+      </c>
+      <c r="K71" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>427</v>
+      </c>
+      <c r="R71" t="s">
+        <v>242</v>
+      </c>
+      <c r="T71" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s">
+        <v>243</v>
+      </c>
+      <c r="J72" t="s">
+        <v>255</v>
+      </c>
+      <c r="K72" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>427</v>
+      </c>
+      <c r="R72" t="s">
+        <v>242</v>
+      </c>
+      <c r="T72" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73">
+        <v>47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>243</v>
+      </c>
+      <c r="K73" t="s">
+        <v>424</v>
+      </c>
+      <c r="P73" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>427</v>
+      </c>
+      <c r="R73" t="s">
+        <v>245</v>
+      </c>
+      <c r="S73">
+        <v>6</v>
+      </c>
+      <c r="T73" t="s">
+        <v>401</v>
+      </c>
+      <c r="W73" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74">
+        <v>48</v>
+      </c>
+      <c r="E74" t="s">
+        <v>243</v>
+      </c>
+      <c r="K74" t="s">
+        <v>424</v>
+      </c>
+      <c r="P74" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>427</v>
+      </c>
+      <c r="R74" t="s">
+        <v>246</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s">
+        <v>401</v>
+      </c>
+      <c r="W74" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>243</v>
+      </c>
+      <c r="K75" t="s">
+        <v>205</v>
+      </c>
+      <c r="L75" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>427</v>
+      </c>
+      <c r="R75" t="s">
+        <v>247</v>
+      </c>
+      <c r="T75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+      <c r="E76" t="s">
+        <v>243</v>
+      </c>
+      <c r="K76" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>427</v>
+      </c>
+      <c r="R76" t="s">
+        <v>247</v>
+      </c>
+      <c r="T76" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77">
+        <v>51</v>
+      </c>
+      <c r="E77" t="s">
+        <v>243</v>
+      </c>
+      <c r="K77" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>427</v>
+      </c>
+      <c r="R77" t="s">
+        <v>247</v>
+      </c>
+      <c r="T77" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78">
+        <v>52</v>
+      </c>
+      <c r="E78" t="s">
+        <v>243</v>
+      </c>
+      <c r="K78" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>427</v>
+      </c>
+      <c r="R78" t="s">
+        <v>247</v>
+      </c>
+      <c r="T78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79">
+        <v>53</v>
+      </c>
+      <c r="E79" t="s">
+        <v>244</v>
+      </c>
+      <c r="K79" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>427</v>
+      </c>
+      <c r="R79" t="s">
+        <v>248</v>
+      </c>
+      <c r="T79" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80">
+        <v>54</v>
+      </c>
+      <c r="E80" t="s">
+        <v>244</v>
+      </c>
+      <c r="J80" t="s">
+        <v>262</v>
+      </c>
+      <c r="K80" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>427</v>
+      </c>
+      <c r="R80" t="s">
+        <v>248</v>
+      </c>
+      <c r="T80" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>244</v>
+      </c>
+      <c r="J81" t="s">
+        <v>262</v>
+      </c>
+      <c r="K81" t="s">
+        <v>263</v>
+      </c>
+      <c r="P81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>427</v>
+      </c>
+      <c r="R81" t="s">
+        <v>248</v>
+      </c>
+      <c r="T81" t="s">
+        <v>401</v>
+      </c>
+      <c r="W81" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82">
+        <v>56</v>
+      </c>
+      <c r="E82" t="s">
+        <v>244</v>
+      </c>
+      <c r="K82" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>427</v>
+      </c>
+      <c r="R82" t="s">
+        <v>248</v>
+      </c>
+      <c r="T82" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83">
+        <v>57</v>
+      </c>
+      <c r="E83" t="s">
+        <v>244</v>
+      </c>
+      <c r="K83" t="s">
+        <v>266</v>
+      </c>
+      <c r="P83" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>427</v>
+      </c>
+      <c r="R83" t="s">
+        <v>248</v>
+      </c>
+      <c r="T83" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84">
+        <v>58</v>
+      </c>
+      <c r="E84" t="s">
+        <v>244</v>
+      </c>
+      <c r="J84" t="s">
+        <v>268</v>
+      </c>
+      <c r="K84" t="s">
+        <v>430</v>
+      </c>
+      <c r="L84" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>427</v>
+      </c>
+      <c r="R84" t="s">
+        <v>249</v>
+      </c>
+      <c r="T84" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85">
+        <v>59</v>
+      </c>
+      <c r="E85" t="s">
+        <v>244</v>
+      </c>
+      <c r="K85" t="s">
+        <v>431</v>
+      </c>
+      <c r="L85" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>427</v>
+      </c>
+      <c r="R85" t="s">
+        <v>249</v>
+      </c>
+      <c r="T85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86">
+        <v>60</v>
+      </c>
+      <c r="E86" t="s">
+        <v>244</v>
+      </c>
+      <c r="K86" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>427</v>
+      </c>
+      <c r="R86" t="s">
+        <v>249</v>
+      </c>
+      <c r="T86" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87">
+        <v>61</v>
+      </c>
+      <c r="E87" t="s">
+        <v>244</v>
+      </c>
+      <c r="K87" t="s">
+        <v>433</v>
+      </c>
+      <c r="L87" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>427</v>
+      </c>
+      <c r="R87" t="s">
+        <v>249</v>
+      </c>
+      <c r="T87" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88">
+        <v>62</v>
+      </c>
+      <c r="E88" t="s">
+        <v>244</v>
+      </c>
+      <c r="K88" t="s">
+        <v>429</v>
+      </c>
+      <c r="L88" t="s">
+        <v>11</v>
+      </c>
+      <c r="N88">
+        <v>1778</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>427</v>
+      </c>
+      <c r="R88" t="s">
+        <v>249</v>
+      </c>
+      <c r="T88" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89">
+        <v>63</v>
+      </c>
+      <c r="E89" t="s">
+        <v>244</v>
+      </c>
+      <c r="K89" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>427</v>
+      </c>
+      <c r="R89" t="s">
+        <v>249</v>
+      </c>
+      <c r="T89" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90">
+        <v>64</v>
+      </c>
+      <c r="E90" t="s">
+        <v>244</v>
+      </c>
+      <c r="K90" t="s">
+        <v>434</v>
+      </c>
+      <c r="L90" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>427</v>
+      </c>
+      <c r="R90" t="s">
+        <v>249</v>
+      </c>
+      <c r="T90" t="s">
+        <v>401</v>
+      </c>
+      <c r="U90" t="s">
+        <v>299</v>
+      </c>
+      <c r="W90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91">
+        <v>65</v>
+      </c>
+      <c r="E91" t="s">
+        <v>244</v>
+      </c>
+      <c r="K91" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>427</v>
+      </c>
+      <c r="R91" t="s">
+        <v>249</v>
+      </c>
+      <c r="T91" t="s">
+        <v>401</v>
+      </c>
+      <c r="U91" t="s">
+        <v>299</v>
+      </c>
+      <c r="W91" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92">
+        <v>66</v>
+      </c>
+      <c r="E92" t="s">
+        <v>244</v>
+      </c>
+      <c r="K92" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>427</v>
+      </c>
+      <c r="R92" t="s">
+        <v>249</v>
+      </c>
+      <c r="T92" t="s">
+        <v>401</v>
+      </c>
+      <c r="U92" t="s">
+        <v>299</v>
+      </c>
+      <c r="W92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93">
+        <v>67</v>
+      </c>
+      <c r="E93" t="s">
+        <v>244</v>
+      </c>
+      <c r="K93" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>427</v>
+      </c>
+      <c r="R93" t="s">
+        <v>249</v>
+      </c>
+      <c r="T93" t="s">
+        <v>401</v>
+      </c>
+      <c r="U93" t="s">
+        <v>299</v>
+      </c>
+      <c r="W93" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94">
+        <v>68</v>
+      </c>
+      <c r="E94" t="s">
+        <v>244</v>
+      </c>
+      <c r="J94" t="s">
+        <v>165</v>
+      </c>
+      <c r="K94" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>427</v>
+      </c>
+      <c r="R94" t="s">
+        <v>249</v>
+      </c>
+      <c r="T94" t="s">
+        <v>401</v>
+      </c>
+      <c r="U94" t="s">
+        <v>299</v>
+      </c>
+      <c r="W94" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95">
+        <v>69</v>
+      </c>
+      <c r="E95" t="s">
+        <v>244</v>
+      </c>
+      <c r="K95" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>427</v>
+      </c>
+      <c r="R95" t="s">
+        <v>249</v>
+      </c>
+      <c r="T95" t="s">
+        <v>401</v>
+      </c>
+      <c r="U95" t="s">
+        <v>299</v>
+      </c>
+      <c r="W95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96">
+        <v>70</v>
+      </c>
+      <c r="E96" t="s">
+        <v>244</v>
+      </c>
+      <c r="K96" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>427</v>
+      </c>
+      <c r="R96" t="s">
+        <v>249</v>
+      </c>
+      <c r="T96" t="s">
+        <v>401</v>
+      </c>
+      <c r="U96" t="s">
+        <v>299</v>
+      </c>
+      <c r="W96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97">
+        <v>71</v>
+      </c>
+      <c r="E97" t="s">
+        <v>244</v>
+      </c>
+      <c r="K97" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>427</v>
+      </c>
+      <c r="R97" t="s">
+        <v>249</v>
+      </c>
+      <c r="T97" t="s">
+        <v>401</v>
+      </c>
+      <c r="U97" t="s">
+        <v>299</v>
+      </c>
+      <c r="W97" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98">
+        <v>72</v>
+      </c>
+      <c r="E98" t="s">
+        <v>244</v>
+      </c>
+      <c r="J98" t="s">
+        <v>285</v>
+      </c>
+      <c r="K98" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>427</v>
+      </c>
+      <c r="R98" t="s">
+        <v>249</v>
+      </c>
+      <c r="T98" t="s">
+        <v>401</v>
+      </c>
+      <c r="U98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99">
+        <v>73</v>
+      </c>
+      <c r="E99" t="s">
+        <v>244</v>
+      </c>
+      <c r="J99" t="s">
+        <v>284</v>
+      </c>
+      <c r="K99" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>427</v>
+      </c>
+      <c r="R99" t="s">
+        <v>249</v>
+      </c>
+      <c r="T99" t="s">
+        <v>401</v>
+      </c>
+      <c r="U99" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100">
+        <v>74</v>
+      </c>
+      <c r="E100" t="s">
+        <v>244</v>
+      </c>
+      <c r="K100" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>427</v>
+      </c>
+      <c r="R100" t="s">
+        <v>249</v>
+      </c>
+      <c r="T100" t="s">
+        <v>401</v>
+      </c>
+      <c r="U100" t="s">
+        <v>299</v>
+      </c>
+      <c r="W100" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101">
+        <v>75</v>
+      </c>
+      <c r="E101" t="s">
+        <v>244</v>
+      </c>
+      <c r="K101" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>427</v>
+      </c>
+      <c r="R101" t="s">
+        <v>249</v>
+      </c>
+      <c r="T101" t="s">
+        <v>401</v>
+      </c>
+      <c r="U101" t="s">
+        <v>299</v>
+      </c>
+      <c r="W101" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102">
+        <v>76</v>
+      </c>
+      <c r="E102" t="s">
+        <v>244</v>
+      </c>
+      <c r="K102" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>427</v>
+      </c>
+      <c r="R102" t="s">
+        <v>249</v>
+      </c>
+      <c r="T102" t="s">
+        <v>401</v>
+      </c>
+      <c r="U102" t="s">
+        <v>299</v>
+      </c>
+      <c r="W102" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B103">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103">
+        <v>77</v>
+      </c>
+      <c r="E103" t="s">
+        <v>244</v>
+      </c>
+      <c r="K103" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>427</v>
+      </c>
+      <c r="R103" t="s">
+        <v>249</v>
+      </c>
+      <c r="T103" t="s">
+        <v>401</v>
+      </c>
+      <c r="U103" t="s">
+        <v>299</v>
+      </c>
+      <c r="W103" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104">
+        <v>78</v>
+      </c>
+      <c r="E104" t="s">
+        <v>244</v>
+      </c>
+      <c r="K104" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>427</v>
+      </c>
+      <c r="R104" t="s">
+        <v>249</v>
+      </c>
+      <c r="T104" t="s">
+        <v>401</v>
+      </c>
+      <c r="U104" t="s">
+        <v>299</v>
+      </c>
+      <c r="W104" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105">
+        <v>79</v>
+      </c>
+      <c r="E105" t="s">
+        <v>244</v>
+      </c>
+      <c r="K105" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>427</v>
+      </c>
+      <c r="R105" t="s">
+        <v>249</v>
+      </c>
+      <c r="T105" t="s">
+        <v>401</v>
+      </c>
+      <c r="U105" t="s">
+        <v>299</v>
+      </c>
+      <c r="W105" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106">
+        <v>80</v>
+      </c>
+      <c r="E106" t="s">
+        <v>244</v>
+      </c>
+      <c r="K106" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>427</v>
+      </c>
+      <c r="R106" t="s">
+        <v>249</v>
+      </c>
+      <c r="T106" t="s">
+        <v>401</v>
+      </c>
+      <c r="U106" t="s">
+        <v>299</v>
+      </c>
+      <c r="W106" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107">
+        <v>81</v>
+      </c>
+      <c r="E107" t="s">
+        <v>244</v>
+      </c>
+      <c r="K107" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>427</v>
+      </c>
+      <c r="R107" t="s">
+        <v>249</v>
+      </c>
+      <c r="T107" t="s">
+        <v>401</v>
+      </c>
+      <c r="U107" t="s">
+        <v>299</v>
+      </c>
+      <c r="W107" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108">
+        <v>82</v>
+      </c>
+      <c r="E108" t="s">
+        <v>244</v>
+      </c>
+      <c r="K108" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>427</v>
+      </c>
+      <c r="R108" t="s">
+        <v>249</v>
+      </c>
+      <c r="T108" t="s">
+        <v>401</v>
+      </c>
+      <c r="U108" t="s">
+        <v>299</v>
+      </c>
+      <c r="W108" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109">
+        <v>83</v>
+      </c>
+      <c r="E109" t="s">
+        <v>244</v>
+      </c>
+      <c r="J109" t="s">
+        <v>295</v>
+      </c>
+      <c r="K109" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>427</v>
+      </c>
+      <c r="R109" t="s">
+        <v>249</v>
+      </c>
+      <c r="T109" t="s">
+        <v>401</v>
+      </c>
+      <c r="U109" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110">
+        <v>84</v>
+      </c>
+      <c r="E110" t="s">
+        <v>244</v>
+      </c>
+      <c r="K110" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>427</v>
+      </c>
+      <c r="R110" t="s">
+        <v>249</v>
+      </c>
+      <c r="T110" t="s">
+        <v>401</v>
+      </c>
+      <c r="U110" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111">
+        <v>85</v>
+      </c>
+      <c r="E111" t="s">
+        <v>244</v>
+      </c>
+      <c r="K111" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>427</v>
+      </c>
+      <c r="R111" t="s">
+        <v>249</v>
+      </c>
+      <c r="T111" t="s">
+        <v>401</v>
+      </c>
+      <c r="U111" t="s">
+        <v>299</v>
+      </c>
+      <c r="W111" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112">
+        <v>86</v>
+      </c>
+      <c r="E112" t="s">
+        <v>244</v>
+      </c>
+      <c r="K112" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>427</v>
+      </c>
+      <c r="R112" t="s">
+        <v>249</v>
+      </c>
+      <c r="T112" t="s">
+        <v>401</v>
+      </c>
+      <c r="U112" t="s">
+        <v>299</v>
+      </c>
+      <c r="W112" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113">
+        <v>87</v>
+      </c>
+      <c r="E113" t="s">
+        <v>244</v>
+      </c>
+      <c r="K113" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>427</v>
+      </c>
+      <c r="R113" t="s">
+        <v>249</v>
+      </c>
+      <c r="T113" t="s">
+        <v>401</v>
+      </c>
+      <c r="U113" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>178</v>
+      </c>
+      <c r="D114">
+        <v>88</v>
+      </c>
+      <c r="E114" t="s">
+        <v>244</v>
+      </c>
+      <c r="K114" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>427</v>
+      </c>
+      <c r="R114" t="s">
+        <v>249</v>
+      </c>
+      <c r="T114" t="s">
+        <v>401</v>
+      </c>
+      <c r="U114" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>178</v>
+      </c>
+      <c r="D115">
+        <v>89</v>
+      </c>
+      <c r="E115" t="s">
+        <v>244</v>
+      </c>
+      <c r="K115" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>427</v>
+      </c>
+      <c r="R115" t="s">
+        <v>249</v>
+      </c>
+      <c r="T115" t="s">
+        <v>401</v>
+      </c>
+      <c r="U115" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116">
+        <v>90</v>
+      </c>
+      <c r="E116" t="s">
+        <v>244</v>
+      </c>
+      <c r="K116" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>427</v>
+      </c>
+      <c r="R116" t="s">
+        <v>249</v>
+      </c>
+      <c r="T116" t="s">
+        <v>401</v>
+      </c>
+      <c r="U116" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117">
+        <v>91</v>
+      </c>
+      <c r="E117" t="s">
+        <v>244</v>
+      </c>
+      <c r="K117" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>427</v>
+      </c>
+      <c r="R117" t="s">
+        <v>249</v>
+      </c>
+      <c r="T117" t="s">
+        <v>401</v>
+      </c>
+      <c r="U117" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118">
+        <v>92</v>
+      </c>
+      <c r="E118" t="s">
+        <v>244</v>
+      </c>
+      <c r="J118" t="s">
+        <v>306</v>
+      </c>
+      <c r="K118" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>427</v>
+      </c>
+      <c r="R118" t="s">
+        <v>249</v>
+      </c>
+      <c r="T118" t="s">
+        <v>401</v>
+      </c>
+      <c r="U118" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>178</v>
+      </c>
+      <c r="D119">
+        <v>93</v>
+      </c>
+      <c r="E119" t="s">
+        <v>244</v>
+      </c>
+      <c r="K119" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>427</v>
+      </c>
+      <c r="R119" t="s">
+        <v>249</v>
+      </c>
+      <c r="T119" t="s">
+        <v>401</v>
+      </c>
+      <c r="U119" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>178</v>
+      </c>
+      <c r="D120">
+        <v>94</v>
+      </c>
+      <c r="E120" t="s">
+        <v>244</v>
+      </c>
+      <c r="K120" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>427</v>
+      </c>
+      <c r="R120" t="s">
+        <v>249</v>
+      </c>
+      <c r="T120" t="s">
+        <v>401</v>
+      </c>
+      <c r="U120" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>178</v>
+      </c>
+      <c r="D121">
+        <v>95</v>
+      </c>
+      <c r="E121" t="s">
+        <v>244</v>
+      </c>
+      <c r="K121" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>427</v>
+      </c>
+      <c r="R121" t="s">
+        <v>249</v>
+      </c>
+      <c r="T121" t="s">
+        <v>401</v>
+      </c>
+      <c r="U121" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>178</v>
+      </c>
+      <c r="D122">
+        <v>96</v>
+      </c>
+      <c r="E122" t="s">
+        <v>244</v>
+      </c>
+      <c r="K122" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>427</v>
+      </c>
+      <c r="R122" t="s">
+        <v>249</v>
+      </c>
+      <c r="T122" t="s">
+        <v>401</v>
+      </c>
+      <c r="U122" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123">
+        <v>97</v>
+      </c>
+      <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="K123" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>427</v>
+      </c>
+      <c r="R123" t="s">
+        <v>249</v>
+      </c>
+      <c r="T123" t="s">
+        <v>401</v>
+      </c>
+      <c r="U123" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>178</v>
+      </c>
+      <c r="D124">
+        <v>98</v>
+      </c>
+      <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="K124" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>427</v>
+      </c>
+      <c r="R124" t="s">
+        <v>249</v>
+      </c>
+      <c r="T124" t="s">
+        <v>401</v>
+      </c>
+      <c r="U124" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>178</v>
+      </c>
+      <c r="D125">
+        <v>99</v>
+      </c>
+      <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="K125" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>427</v>
+      </c>
+      <c r="R125" t="s">
+        <v>249</v>
+      </c>
+      <c r="T125" t="s">
+        <v>401</v>
+      </c>
+      <c r="U125" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>178</v>
+      </c>
+      <c r="D126">
+        <v>100</v>
+      </c>
+      <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="K126" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>428</v>
+      </c>
+      <c r="R126" t="s">
+        <v>249</v>
+      </c>
+      <c r="T126" t="s">
+        <v>401</v>
+      </c>
+      <c r="U126" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127">
+        <v>101</v>
+      </c>
+      <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="K127" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>427</v>
+      </c>
+      <c r="R127" t="s">
+        <v>249</v>
+      </c>
+      <c r="T127" t="s">
+        <v>401</v>
+      </c>
+      <c r="U127" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>178</v>
+      </c>
+      <c r="D128">
+        <v>102</v>
+      </c>
+      <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="K128" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>427</v>
+      </c>
+      <c r="R128" t="s">
+        <v>249</v>
+      </c>
+      <c r="T128" t="s">
+        <v>401</v>
+      </c>
+      <c r="U128" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129">
+        <v>103</v>
+      </c>
+      <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="K129" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>427</v>
+      </c>
+      <c r="R129" t="s">
+        <v>249</v>
+      </c>
+      <c r="T129" t="s">
+        <v>401</v>
+      </c>
+      <c r="U129" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130">
+        <v>104</v>
+      </c>
+      <c r="E130" t="s">
+        <v>244</v>
+      </c>
+      <c r="K130" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>427</v>
+      </c>
+      <c r="R130" t="s">
+        <v>249</v>
+      </c>
+      <c r="T130" t="s">
+        <v>401</v>
+      </c>
+      <c r="U130" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>178</v>
+      </c>
+      <c r="D131">
+        <v>105</v>
+      </c>
+      <c r="E131" t="s">
+        <v>319</v>
+      </c>
+      <c r="K131" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>427</v>
+      </c>
+      <c r="R131" t="s">
+        <v>249</v>
+      </c>
+      <c r="T131" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132">
+        <v>106</v>
+      </c>
+      <c r="E132" t="s">
+        <v>319</v>
+      </c>
+      <c r="K132" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>427</v>
+      </c>
+      <c r="R132" t="s">
+        <v>249</v>
+      </c>
+      <c r="T132" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B133">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133">
+        <v>107</v>
+      </c>
+      <c r="E133" t="s">
+        <v>319</v>
+      </c>
+      <c r="K133" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>427</v>
+      </c>
+      <c r="R133" t="s">
+        <v>249</v>
+      </c>
+      <c r="T133" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134">
+        <v>108</v>
+      </c>
+      <c r="E134" t="s">
+        <v>319</v>
+      </c>
+      <c r="K134" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>427</v>
+      </c>
+      <c r="R134" t="s">
+        <v>249</v>
+      </c>
+      <c r="T134" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>178</v>
+      </c>
+      <c r="D135">
+        <v>109</v>
+      </c>
+      <c r="E135" t="s">
+        <v>319</v>
+      </c>
+      <c r="K135" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>427</v>
+      </c>
+      <c r="R135" t="s">
+        <v>249</v>
+      </c>
+      <c r="T135" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136">
+        <v>110</v>
+      </c>
+      <c r="E136" t="s">
+        <v>319</v>
+      </c>
+      <c r="K136" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>427</v>
+      </c>
+      <c r="R136" t="s">
+        <v>249</v>
+      </c>
+      <c r="T136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B137">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137">
+        <v>111</v>
+      </c>
+      <c r="E137" t="s">
+        <v>319</v>
+      </c>
+      <c r="K137" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>427</v>
+      </c>
+      <c r="R137" t="s">
+        <v>249</v>
+      </c>
+      <c r="T137" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138">
+        <v>112</v>
+      </c>
+      <c r="E138" t="s">
+        <v>319</v>
+      </c>
+      <c r="K138" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>427</v>
+      </c>
+      <c r="R138" t="s">
+        <v>249</v>
+      </c>
+      <c r="T138" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B139">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139">
+        <v>113</v>
+      </c>
+      <c r="E139" t="s">
+        <v>319</v>
+      </c>
+      <c r="K139" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>427</v>
+      </c>
+      <c r="R139" t="s">
+        <v>249</v>
+      </c>
+      <c r="T139" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B140">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>178</v>
+      </c>
+      <c r="D140">
+        <v>114</v>
+      </c>
+      <c r="E140" t="s">
+        <v>319</v>
+      </c>
+      <c r="K140" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>427</v>
+      </c>
+      <c r="R140" t="s">
+        <v>249</v>
+      </c>
+      <c r="T140" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B141">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141">
+        <v>115</v>
+      </c>
+      <c r="E141" t="s">
+        <v>319</v>
+      </c>
+      <c r="K141" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>427</v>
+      </c>
+      <c r="R141" t="s">
+        <v>249</v>
+      </c>
+      <c r="T141" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>178</v>
+      </c>
+      <c r="D142">
+        <v>116</v>
+      </c>
+      <c r="E142" t="s">
+        <v>319</v>
+      </c>
+      <c r="K142" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>427</v>
+      </c>
+      <c r="R142" t="s">
+        <v>249</v>
+      </c>
+      <c r="T142" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B143">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>178</v>
+      </c>
+      <c r="D143">
+        <v>117</v>
+      </c>
+      <c r="E143" t="s">
+        <v>319</v>
+      </c>
+      <c r="J143" t="s">
+        <v>336</v>
+      </c>
+      <c r="K143" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>427</v>
+      </c>
+      <c r="R143" t="s">
+        <v>249</v>
+      </c>
+      <c r="T143" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B144">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144">
+        <v>118</v>
+      </c>
+      <c r="E144" t="s">
+        <v>319</v>
+      </c>
+      <c r="K144" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>427</v>
+      </c>
+      <c r="R144" t="s">
+        <v>249</v>
+      </c>
+      <c r="T144" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B145">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>178</v>
+      </c>
+      <c r="D145">
+        <v>119</v>
+      </c>
+      <c r="E145" t="s">
+        <v>319</v>
+      </c>
+      <c r="K145" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>427</v>
+      </c>
+      <c r="R145" t="s">
+        <v>249</v>
+      </c>
+      <c r="T145" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B146">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>178</v>
+      </c>
+      <c r="D146">
+        <v>120</v>
+      </c>
+      <c r="E146" t="s">
+        <v>319</v>
+      </c>
+      <c r="K146" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>427</v>
+      </c>
+      <c r="R146" t="s">
+        <v>249</v>
+      </c>
+      <c r="T146" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B147">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>178</v>
+      </c>
+      <c r="D147">
+        <v>121</v>
+      </c>
+      <c r="E147" t="s">
+        <v>319</v>
+      </c>
+      <c r="K147" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>427</v>
+      </c>
+      <c r="R147" t="s">
+        <v>249</v>
+      </c>
+      <c r="T147" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B148">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>178</v>
+      </c>
+      <c r="D148">
+        <v>122</v>
+      </c>
+      <c r="E148" t="s">
+        <v>319</v>
+      </c>
+      <c r="J148" t="s">
+        <v>342</v>
+      </c>
+      <c r="K148" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>427</v>
+      </c>
+      <c r="R148" t="s">
+        <v>249</v>
+      </c>
+      <c r="T148" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B149">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149">
+        <v>123</v>
+      </c>
+      <c r="E149" t="s">
+        <v>319</v>
+      </c>
+      <c r="K149" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>427</v>
+      </c>
+      <c r="R149" t="s">
+        <v>249</v>
+      </c>
+      <c r="T149" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B150">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>178</v>
+      </c>
+      <c r="D150">
+        <v>124</v>
+      </c>
+      <c r="E150" t="s">
+        <v>319</v>
+      </c>
+      <c r="J150" t="s">
+        <v>345</v>
+      </c>
+      <c r="K150" t="s">
+        <v>438</v>
+      </c>
+      <c r="P150" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>427</v>
+      </c>
+      <c r="R150" t="s">
+        <v>249</v>
+      </c>
+      <c r="T150" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B151">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D151">
+        <v>125</v>
+      </c>
+      <c r="E151" t="s">
+        <v>321</v>
+      </c>
+      <c r="K151" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>427</v>
+      </c>
+      <c r="R151" t="s">
+        <v>249</v>
+      </c>
+      <c r="T151" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B152">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D152">
+        <v>126</v>
+      </c>
+      <c r="E152" t="s">
+        <v>321</v>
+      </c>
+      <c r="K152" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>427</v>
+      </c>
+      <c r="R152" t="s">
+        <v>249</v>
+      </c>
+      <c r="T152" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B153">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>178</v>
+      </c>
+      <c r="D153">
+        <v>127</v>
+      </c>
+      <c r="E153" t="s">
+        <v>321</v>
+      </c>
+      <c r="J153" t="s">
+        <v>348</v>
+      </c>
+      <c r="K153" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>427</v>
+      </c>
+      <c r="R153" t="s">
+        <v>249</v>
+      </c>
+      <c r="T153" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>178</v>
+      </c>
+      <c r="D154">
+        <v>128</v>
+      </c>
+      <c r="E154" t="s">
+        <v>321</v>
+      </c>
+      <c r="K154" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>427</v>
+      </c>
+      <c r="R154" t="s">
+        <v>249</v>
+      </c>
+      <c r="T154" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>178</v>
+      </c>
+      <c r="D155">
+        <v>129</v>
+      </c>
+      <c r="E155" t="s">
+        <v>321</v>
+      </c>
+      <c r="K155" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>427</v>
+      </c>
+      <c r="R155" t="s">
+        <v>249</v>
+      </c>
+      <c r="T155" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B156">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>178</v>
+      </c>
+      <c r="D156">
+        <v>130</v>
+      </c>
+      <c r="E156" t="s">
+        <v>321</v>
+      </c>
+      <c r="K156" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>427</v>
+      </c>
+      <c r="R156" t="s">
+        <v>249</v>
+      </c>
+      <c r="T156" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>178</v>
+      </c>
+      <c r="D157">
+        <v>131</v>
+      </c>
+      <c r="E157" t="s">
+        <v>321</v>
+      </c>
+      <c r="K157" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>427</v>
+      </c>
+      <c r="R157" t="s">
+        <v>249</v>
+      </c>
+      <c r="T157" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B158">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>178</v>
+      </c>
+      <c r="D158">
+        <v>132</v>
+      </c>
+      <c r="E158" t="s">
+        <v>321</v>
+      </c>
+      <c r="K158" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>427</v>
+      </c>
+      <c r="R158" t="s">
+        <v>249</v>
+      </c>
+      <c r="T158" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B159">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>178</v>
+      </c>
+      <c r="D159">
+        <v>133</v>
+      </c>
+      <c r="E159" t="s">
+        <v>321</v>
+      </c>
+      <c r="K159" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>427</v>
+      </c>
+      <c r="R159" t="s">
+        <v>249</v>
+      </c>
+      <c r="T159" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B160">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>178</v>
+      </c>
+      <c r="D160">
+        <v>134</v>
+      </c>
+      <c r="E160" t="s">
+        <v>321</v>
+      </c>
+      <c r="K160" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>427</v>
+      </c>
+      <c r="R160" t="s">
+        <v>249</v>
+      </c>
+      <c r="T160" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B161">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>178</v>
+      </c>
+      <c r="D161">
+        <v>135</v>
+      </c>
+      <c r="E161" t="s">
+        <v>321</v>
+      </c>
+      <c r="K161" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>427</v>
+      </c>
+      <c r="R161" t="s">
+        <v>249</v>
+      </c>
+      <c r="T161" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B162">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>178</v>
+      </c>
+      <c r="D162">
+        <v>136</v>
+      </c>
+      <c r="E162" t="s">
+        <v>321</v>
+      </c>
+      <c r="K162" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>427</v>
+      </c>
+      <c r="R162" t="s">
+        <v>249</v>
+      </c>
+      <c r="T162" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B163">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>178</v>
+      </c>
+      <c r="D163">
+        <v>137</v>
+      </c>
+      <c r="E163" t="s">
+        <v>321</v>
+      </c>
+      <c r="K163" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>427</v>
+      </c>
+      <c r="R163" t="s">
+        <v>249</v>
+      </c>
+      <c r="T163" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B164">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>178</v>
+      </c>
+      <c r="D164">
+        <v>138</v>
+      </c>
+      <c r="E164" t="s">
+        <v>321</v>
+      </c>
+      <c r="K164" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>427</v>
+      </c>
+      <c r="R164" t="s">
+        <v>249</v>
+      </c>
+      <c r="T164" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165">
+        <v>139</v>
+      </c>
+      <c r="E165" t="s">
+        <v>321</v>
+      </c>
+      <c r="K165" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>427</v>
+      </c>
+      <c r="R165" t="s">
+        <v>249</v>
+      </c>
+      <c r="T165" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B166">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>178</v>
+      </c>
+      <c r="D166">
+        <v>140</v>
+      </c>
+      <c r="E166" t="s">
+        <v>322</v>
+      </c>
+      <c r="K166" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>427</v>
+      </c>
+      <c r="R166" t="s">
+        <v>323</v>
+      </c>
+      <c r="T166" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>178</v>
+      </c>
+      <c r="D167">
+        <v>141</v>
+      </c>
+      <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="K167" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>427</v>
+      </c>
+      <c r="R167" t="s">
+        <v>324</v>
+      </c>
+      <c r="T167" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B168">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168">
+        <v>142</v>
+      </c>
+      <c r="E168" t="s">
+        <v>320</v>
+      </c>
+      <c r="K168" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>427</v>
+      </c>
+      <c r="R168" t="s">
+        <v>324</v>
+      </c>
+      <c r="T168" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>178</v>
+      </c>
+      <c r="D169">
+        <v>143</v>
+      </c>
+      <c r="E169" t="s">
+        <v>320</v>
+      </c>
+      <c r="K169" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>427</v>
+      </c>
+      <c r="R169" t="s">
+        <v>324</v>
+      </c>
+      <c r="T169" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B170">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>178</v>
+      </c>
+      <c r="D170">
+        <v>144</v>
+      </c>
+      <c r="E170" t="s">
+        <v>320</v>
+      </c>
+      <c r="K170" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>427</v>
+      </c>
+      <c r="R170" t="s">
+        <v>324</v>
+      </c>
+      <c r="T170" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B171">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>178</v>
+      </c>
+      <c r="D171">
+        <v>145</v>
+      </c>
+      <c r="E171" t="s">
+        <v>320</v>
+      </c>
+      <c r="K171" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>427</v>
+      </c>
+      <c r="R171" t="s">
+        <v>324</v>
+      </c>
+      <c r="T171" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B172">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>178</v>
+      </c>
+      <c r="D172">
+        <v>146</v>
+      </c>
+      <c r="E172" t="s">
+        <v>320</v>
+      </c>
+      <c r="K172" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>427</v>
+      </c>
+      <c r="R172" t="s">
+        <v>324</v>
+      </c>
+      <c r="T172" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B173" t="s">
+        <v>372</v>
+      </c>
+      <c r="C173" t="s">
+        <v>371</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>373</v>
+      </c>
+      <c r="K173" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>427</v>
+      </c>
+      <c r="R173" t="s">
+        <v>376</v>
+      </c>
+      <c r="S173">
+        <v>24</v>
+      </c>
+      <c r="T173" t="s">
+        <v>401</v>
+      </c>
+      <c r="U173" t="s">
+        <v>377</v>
+      </c>
+      <c r="V173" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B174" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" t="s">
+        <v>371</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>373</v>
+      </c>
+      <c r="K174" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>427</v>
+      </c>
+      <c r="R174" t="s">
+        <v>376</v>
+      </c>
+      <c r="S174">
+        <v>24</v>
+      </c>
+      <c r="T174" t="s">
+        <v>401</v>
+      </c>
+      <c r="U174" t="s">
+        <v>377</v>
+      </c>
+      <c r="V174" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B175">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s">
+        <v>385</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>101</v>
+      </c>
+      <c r="F175" t="s">
+        <v>102</v>
+      </c>
+      <c r="G175" t="s">
+        <v>58</v>
+      </c>
+      <c r="K175" t="s">
+        <v>105</v>
+      </c>
+      <c r="L175" t="s">
+        <v>106</v>
+      </c>
+      <c r="M175" t="s">
+        <v>107</v>
+      </c>
+      <c r="N175">
+        <v>1777</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>427</v>
+      </c>
+      <c r="R175" t="s">
+        <v>393</v>
+      </c>
+      <c r="S175">
+        <v>40</v>
+      </c>
+      <c r="T175" t="s">
+        <v>400</v>
+      </c>
+      <c r="W175" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B176">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>385</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>101</v>
+      </c>
+      <c r="F176" t="s">
+        <v>102</v>
+      </c>
+      <c r="G176" t="s">
+        <v>58</v>
+      </c>
+      <c r="K176" t="s">
+        <v>112</v>
+      </c>
+      <c r="N176">
+        <v>1777</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>427</v>
+      </c>
+      <c r="R176" t="s">
+        <v>393</v>
+      </c>
+      <c r="S176">
+        <v>10</v>
+      </c>
+      <c r="T176" t="s">
+        <v>400</v>
+      </c>
+      <c r="W176" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B177">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>385</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>101</v>
+      </c>
+      <c r="F177" t="s">
+        <v>102</v>
+      </c>
+      <c r="G177" t="s">
+        <v>58</v>
+      </c>
+      <c r="K177" t="s">
+        <v>113</v>
+      </c>
+      <c r="L177" t="s">
+        <v>11</v>
+      </c>
+      <c r="N177">
+        <v>1778</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>427</v>
+      </c>
+      <c r="R177" t="s">
+        <v>393</v>
+      </c>
+      <c r="S177">
+        <v>13</v>
+      </c>
+      <c r="T177" t="s">
+        <v>400</v>
+      </c>
+      <c r="W177" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B178">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>385</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178" t="s">
+        <v>101</v>
+      </c>
+      <c r="F178" t="s">
+        <v>102</v>
+      </c>
+      <c r="G178" t="s">
+        <v>58</v>
+      </c>
+      <c r="K178" t="s">
+        <v>114</v>
+      </c>
+      <c r="N178">
+        <v>1777</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>427</v>
+      </c>
+      <c r="R178" t="s">
+        <v>393</v>
+      </c>
+      <c r="S178">
+        <v>20</v>
+      </c>
+      <c r="T178" t="s">
+        <v>400</v>
+      </c>
+      <c r="W178" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>385</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>101</v>
+      </c>
+      <c r="F179" t="s">
+        <v>102</v>
+      </c>
+      <c r="G179" t="s">
+        <v>58</v>
+      </c>
+      <c r="K179" t="s">
+        <v>115</v>
+      </c>
+      <c r="L179" t="s">
+        <v>116</v>
+      </c>
+      <c r="M179" t="s">
+        <v>117</v>
+      </c>
+      <c r="N179">
+        <v>1776</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>427</v>
+      </c>
+      <c r="R179" t="s">
+        <v>393</v>
+      </c>
+      <c r="S179">
+        <v>6</v>
+      </c>
+      <c r="T179" t="s">
+        <v>400</v>
+      </c>
+      <c r="W179" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B180">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
+        <v>385</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="E180" t="s">
+        <v>101</v>
+      </c>
+      <c r="F180" t="s">
+        <v>102</v>
+      </c>
+      <c r="G180" t="s">
+        <v>58</v>
+      </c>
+      <c r="K180" t="s">
+        <v>118</v>
+      </c>
+      <c r="L180" t="s">
+        <v>119</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>427</v>
+      </c>
+      <c r="R180" t="s">
+        <v>393</v>
+      </c>
+      <c r="S180">
+        <v>30</v>
+      </c>
+      <c r="T180" t="s">
+        <v>400</v>
+      </c>
+      <c r="W180" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B181">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>385</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>101</v>
+      </c>
+      <c r="F181" t="s">
+        <v>102</v>
+      </c>
+      <c r="G181" t="s">
+        <v>58</v>
+      </c>
+      <c r="K181" t="s">
+        <v>382</v>
+      </c>
+      <c r="L181" t="s">
+        <v>106</v>
+      </c>
+      <c r="N181">
+        <v>1777</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>427</v>
+      </c>
+      <c r="R181" t="s">
+        <v>393</v>
+      </c>
+      <c r="S181">
+        <v>6</v>
+      </c>
+      <c r="T181" t="s">
+        <v>400</v>
+      </c>
+      <c r="W181" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B182">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>385</v>
+      </c>
+      <c r="D182">
+        <v>8</v>
+      </c>
+      <c r="E182" t="s">
+        <v>101</v>
+      </c>
+      <c r="F182" t="s">
+        <v>102</v>
+      </c>
+      <c r="G182" t="s">
+        <v>58</v>
+      </c>
+      <c r="K182" t="s">
+        <v>121</v>
+      </c>
+      <c r="L182" t="s">
+        <v>106</v>
+      </c>
+      <c r="N182">
+        <v>1777</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>427</v>
+      </c>
+      <c r="R182" t="s">
+        <v>393</v>
+      </c>
+      <c r="S182">
+        <v>6</v>
+      </c>
+      <c r="T182" t="s">
+        <v>400</v>
+      </c>
+      <c r="W182" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B183">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>385</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183" t="s">
+        <v>101</v>
+      </c>
+      <c r="F183" t="s">
+        <v>102</v>
+      </c>
+      <c r="G183" t="s">
+        <v>58</v>
+      </c>
+      <c r="K183" t="s">
+        <v>383</v>
+      </c>
+      <c r="L183" t="s">
+        <v>60</v>
+      </c>
+      <c r="M183" t="s">
+        <v>122</v>
+      </c>
+      <c r="N183">
+        <v>1777</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>427</v>
+      </c>
+      <c r="R183" t="s">
+        <v>393</v>
+      </c>
+      <c r="S183">
+        <v>1</v>
+      </c>
+      <c r="T183" t="s">
+        <v>400</v>
+      </c>
+      <c r="W183" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B184">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>385</v>
+      </c>
+      <c r="D184">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>101</v>
+      </c>
+      <c r="F184" t="s">
+        <v>102</v>
+      </c>
+      <c r="G184" t="s">
+        <v>58</v>
+      </c>
+      <c r="K184" t="s">
+        <v>123</v>
+      </c>
+      <c r="L184" t="s">
+        <v>106</v>
+      </c>
+      <c r="N184">
+        <v>1775</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>427</v>
+      </c>
+      <c r="R184" t="s">
+        <v>393</v>
+      </c>
+      <c r="S184">
+        <v>6</v>
+      </c>
+      <c r="T184" t="s">
+        <v>400</v>
+      </c>
+      <c r="W184" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B185">
+        <v>17</v>
+      </c>
+      <c r="C185" t="s">
+        <v>385</v>
+      </c>
+      <c r="D185">
+        <v>11</v>
+      </c>
+      <c r="E185" t="s">
+        <v>101</v>
+      </c>
+      <c r="F185" t="s">
+        <v>102</v>
+      </c>
+      <c r="G185" t="s">
+        <v>58</v>
+      </c>
+      <c r="K185" t="s">
+        <v>124</v>
+      </c>
+      <c r="L185" t="s">
+        <v>106</v>
+      </c>
+      <c r="M185" t="s">
+        <v>125</v>
+      </c>
+      <c r="N185">
+        <v>1776</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>427</v>
+      </c>
+      <c r="R185" t="s">
+        <v>393</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185" t="s">
+        <v>400</v>
+      </c>
+      <c r="W185" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B186">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>134</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s">
+        <v>392</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" t="s">
+        <v>17</v>
+      </c>
+      <c r="O186">
+        <v>5</v>
+      </c>
+      <c r="P186" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>427</v>
+      </c>
+      <c r="R186" t="s">
+        <v>9</v>
+      </c>
+      <c r="T186" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B187">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>134</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" t="s">
+        <v>392</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" t="s">
+        <v>21</v>
+      </c>
+      <c r="O187">
+        <v>23</v>
+      </c>
+      <c r="P187" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>427</v>
+      </c>
+      <c r="R187" t="s">
+        <v>9</v>
+      </c>
+      <c r="T187" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B188">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188">
+        <v>9</v>
+      </c>
+      <c r="G188" t="s">
+        <v>23</v>
+      </c>
+      <c r="H188" t="s">
+        <v>398</v>
+      </c>
+      <c r="I188" t="s">
+        <v>25</v>
+      </c>
+      <c r="K188" t="s">
+        <v>26</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>427</v>
+      </c>
+      <c r="R188" t="s">
+        <v>24</v>
+      </c>
+      <c r="T188" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B189">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>134</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>9</v>
+      </c>
+      <c r="G189" t="s">
+        <v>23</v>
+      </c>
+      <c r="H189" t="s">
+        <v>398</v>
+      </c>
+      <c r="I189" t="s">
+        <v>25</v>
+      </c>
+      <c r="K189" t="s">
+        <v>28</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>427</v>
+      </c>
+      <c r="R189" t="s">
+        <v>24</v>
+      </c>
+      <c r="T189" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B190">
+        <v>20</v>
+      </c>
+      <c r="C190" t="s">
+        <v>134</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190">
+        <v>9</v>
+      </c>
+      <c r="G190" t="s">
+        <v>23</v>
+      </c>
+      <c r="H190" t="s">
+        <v>398</v>
+      </c>
+      <c r="I190" t="s">
+        <v>25</v>
+      </c>
+      <c r="K190" t="s">
+        <v>30</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="P190" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>427</v>
+      </c>
+      <c r="R190" t="s">
+        <v>24</v>
+      </c>
+      <c r="T190" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B191">
+        <v>20</v>
+      </c>
+      <c r="C191" t="s">
+        <v>134</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>5</v>
+      </c>
+      <c r="F191">
+        <v>9</v>
+      </c>
+      <c r="G191" t="s">
+        <v>23</v>
+      </c>
+      <c r="H191" t="s">
+        <v>398</v>
+      </c>
+      <c r="I191" t="s">
+        <v>25</v>
+      </c>
+      <c r="K191" t="s">
+        <v>32</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="P191" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>427</v>
+      </c>
+      <c r="R191" t="s">
+        <v>24</v>
+      </c>
+      <c r="T191" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B192">
+        <v>20</v>
+      </c>
+      <c r="C192" t="s">
+        <v>134</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>37</v>
+      </c>
+      <c r="G192" t="s">
+        <v>33</v>
+      </c>
+      <c r="H192" t="s">
+        <v>398</v>
+      </c>
+      <c r="I192" t="s">
+        <v>35</v>
+      </c>
+      <c r="K192" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>427</v>
+      </c>
+      <c r="R192" t="s">
+        <v>34</v>
+      </c>
+      <c r="T192" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B193">
+        <v>20</v>
+      </c>
+      <c r="C193" t="s">
+        <v>134</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>5</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+      <c r="G193" t="s">
+        <v>39</v>
+      </c>
+      <c r="H193" t="s">
+        <v>398</v>
+      </c>
+      <c r="I193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K193" t="s">
+        <v>26</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>427</v>
+      </c>
+      <c r="R193" t="s">
+        <v>40</v>
+      </c>
+      <c r="T193" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B194">
+        <v>20</v>
+      </c>
+      <c r="C194" t="s">
+        <v>134</v>
+      </c>
+      <c r="D194">
+        <v>9</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5</v>
+      </c>
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="G194" t="s">
+        <v>39</v>
+      </c>
+      <c r="H194" t="s">
+        <v>398</v>
+      </c>
+      <c r="I194" t="s">
+        <v>25</v>
+      </c>
+      <c r="K194" t="s">
+        <v>28</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>427</v>
+      </c>
+      <c r="R194" t="s">
+        <v>40</v>
+      </c>
+      <c r="T194" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B195">
+        <v>20</v>
+      </c>
+      <c r="C195" t="s">
+        <v>134</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195">
+        <v>7</v>
+      </c>
+      <c r="G195" t="s">
+        <v>39</v>
+      </c>
+      <c r="H195" t="s">
+        <v>398</v>
+      </c>
+      <c r="I195" t="s">
+        <v>25</v>
+      </c>
+      <c r="K195" t="s">
+        <v>28</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>427</v>
+      </c>
+      <c r="R195" t="s">
+        <v>41</v>
+      </c>
+      <c r="T195" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B196">
+        <v>20</v>
+      </c>
+      <c r="C196" t="s">
+        <v>134</v>
+      </c>
+      <c r="D196">
+        <v>11</v>
+      </c>
+      <c r="E196" t="s">
+        <v>5</v>
+      </c>
+      <c r="F196">
+        <v>7</v>
+      </c>
+      <c r="G196" t="s">
+        <v>39</v>
+      </c>
+      <c r="H196" t="s">
+        <v>398</v>
+      </c>
+      <c r="I196" t="s">
+        <v>25</v>
+      </c>
+      <c r="K196" t="s">
+        <v>30</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="P196" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>427</v>
+      </c>
+      <c r="R196" t="s">
+        <v>41</v>
+      </c>
+      <c r="T196" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197">
+        <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>134</v>
+      </c>
+      <c r="D197">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>7</v>
+      </c>
+      <c r="G197" t="s">
+        <v>39</v>
+      </c>
+      <c r="H197" t="s">
+        <v>398</v>
+      </c>
+      <c r="I197" t="s">
+        <v>25</v>
+      </c>
+      <c r="K197" t="s">
+        <v>32</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="P197" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>427</v>
+      </c>
+      <c r="R197" t="s">
+        <v>41</v>
+      </c>
+      <c r="T197" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198">
+        <v>20</v>
+      </c>
+      <c r="C198" t="s">
+        <v>134</v>
+      </c>
+      <c r="D198">
+        <v>13</v>
+      </c>
+      <c r="E198" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198">
+        <v>7</v>
+      </c>
+      <c r="G198" t="s">
+        <v>39</v>
+      </c>
+      <c r="H198" t="s">
+        <v>398</v>
+      </c>
+      <c r="I198" t="s">
+        <v>25</v>
+      </c>
+      <c r="K198" t="s">
+        <v>26</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>427</v>
+      </c>
+      <c r="R198" t="s">
+        <v>41</v>
+      </c>
+      <c r="T198" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>134</v>
+      </c>
+      <c r="D199">
+        <v>14</v>
+      </c>
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199" t="s">
+        <v>42</v>
+      </c>
+      <c r="H199" t="s">
+        <v>398</v>
+      </c>
+      <c r="I199" t="s">
+        <v>25</v>
+      </c>
+      <c r="K199" t="s">
+        <v>26</v>
+      </c>
+      <c r="O199">
+        <v>1</v>
+      </c>
+      <c r="P199" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>427</v>
+      </c>
+      <c r="R199" t="s">
+        <v>43</v>
+      </c>
+      <c r="T199" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B200">
+        <v>20</v>
+      </c>
+      <c r="C200" t="s">
+        <v>134</v>
+      </c>
+      <c r="D200">
+        <v>15</v>
+      </c>
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200" t="s">
+        <v>42</v>
+      </c>
+      <c r="H200" t="s">
+        <v>398</v>
+      </c>
+      <c r="I200" t="s">
+        <v>25</v>
+      </c>
+      <c r="K200" t="s">
+        <v>28</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
+      <c r="P200" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>427</v>
+      </c>
+      <c r="R200" t="s">
+        <v>43</v>
+      </c>
+      <c r="T200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201">
+        <v>20</v>
+      </c>
+      <c r="C201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D201">
+        <v>16</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="G201" t="s">
+        <v>44</v>
+      </c>
+      <c r="H201" t="s">
+        <v>398</v>
+      </c>
+      <c r="I201" t="s">
+        <v>25</v>
+      </c>
+      <c r="K201" t="s">
+        <v>26</v>
+      </c>
+      <c r="O201">
+        <v>1</v>
+      </c>
+      <c r="P201" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>427</v>
+      </c>
+      <c r="R201" t="s">
+        <v>45</v>
+      </c>
+      <c r="T201" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202">
+        <v>20</v>
+      </c>
+      <c r="C202" t="s">
+        <v>134</v>
+      </c>
+      <c r="D202">
+        <v>17</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202" t="s">
+        <v>44</v>
+      </c>
+      <c r="H202" t="s">
+        <v>398</v>
+      </c>
+      <c r="I202" t="s">
+        <v>25</v>
+      </c>
+      <c r="K202" t="s">
+        <v>32</v>
+      </c>
+      <c r="O202">
+        <v>1</v>
+      </c>
+      <c r="P202" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>427</v>
+      </c>
+      <c r="R202" t="s">
+        <v>45</v>
+      </c>
+      <c r="T202" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B203">
+        <v>20</v>
+      </c>
+      <c r="C203" t="s">
+        <v>134</v>
+      </c>
+      <c r="D203">
+        <v>18</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203" t="s">
+        <v>44</v>
+      </c>
+      <c r="H203" t="s">
+        <v>398</v>
+      </c>
+      <c r="I203" t="s">
+        <v>25</v>
+      </c>
+      <c r="K203" t="s">
+        <v>30</v>
+      </c>
+      <c r="O203">
+        <v>1</v>
+      </c>
+      <c r="P203" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>427</v>
+      </c>
+      <c r="R203" t="s">
+        <v>45</v>
+      </c>
+      <c r="T203" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B204">
+        <v>20</v>
+      </c>
+      <c r="C204" t="s">
+        <v>134</v>
+      </c>
+      <c r="D204">
+        <v>19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204" t="s">
+        <v>44</v>
+      </c>
+      <c r="H204" t="s">
+        <v>398</v>
+      </c>
+      <c r="I204" t="s">
+        <v>25</v>
+      </c>
+      <c r="K204" t="s">
+        <v>28</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
+      <c r="P204" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>427</v>
+      </c>
+      <c r="R204" t="s">
+        <v>45</v>
+      </c>
+      <c r="T204" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s">
+        <v>134</v>
+      </c>
+      <c r="D205">
+        <v>20</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+      <c r="F205" t="s">
+        <v>49</v>
+      </c>
+      <c r="G205" t="s">
+        <v>42</v>
+      </c>
+      <c r="H205" t="s">
+        <v>48</v>
+      </c>
+      <c r="I205" t="s">
+        <v>47</v>
+      </c>
+      <c r="K205" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>427</v>
+      </c>
+      <c r="R205" t="s">
+        <v>46</v>
+      </c>
+      <c r="T205" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B206">
+        <v>20</v>
+      </c>
+      <c r="C206" t="s">
+        <v>134</v>
+      </c>
+      <c r="D206">
+        <v>21</v>
+      </c>
+      <c r="E206" t="s">
+        <v>5</v>
+      </c>
+      <c r="F206" t="s">
+        <v>53</v>
+      </c>
+      <c r="G206" t="s">
+        <v>42</v>
+      </c>
+      <c r="H206" t="s">
+        <v>52</v>
+      </c>
+      <c r="I206" t="s">
+        <v>51</v>
+      </c>
+      <c r="K206" t="s">
+        <v>54</v>
+      </c>
+      <c r="O206">
+        <v>2</v>
+      </c>
+      <c r="P206" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>427</v>
+      </c>
+      <c r="R206" t="s">
+        <v>57</v>
+      </c>
+      <c r="T206" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B207">
+        <v>20</v>
+      </c>
+      <c r="C207" t="s">
+        <v>134</v>
+      </c>
+      <c r="D207">
+        <v>22</v>
+      </c>
+      <c r="E207" t="s">
+        <v>5</v>
+      </c>
+      <c r="F207" t="s">
+        <v>53</v>
+      </c>
+      <c r="G207" t="s">
+        <v>42</v>
+      </c>
+      <c r="H207" t="s">
+        <v>52</v>
+      </c>
+      <c r="I207" t="s">
+        <v>51</v>
+      </c>
+      <c r="K207" t="s">
+        <v>56</v>
+      </c>
+      <c r="O207">
+        <v>2</v>
+      </c>
+      <c r="P207" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>427</v>
+      </c>
+      <c r="R207" t="s">
+        <v>57</v>
+      </c>
+      <c r="T207" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B208">
+        <v>20</v>
+      </c>
+      <c r="C208" t="s">
+        <v>134</v>
+      </c>
+      <c r="D208">
+        <v>23</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>61</v>
+      </c>
+      <c r="G208" t="s">
+        <v>58</v>
+      </c>
+      <c r="H208" t="s">
+        <v>398</v>
+      </c>
+      <c r="I208" t="s">
+        <v>60</v>
+      </c>
+      <c r="K208" t="s">
+        <v>62</v>
+      </c>
+      <c r="O208">
+        <v>1</v>
+      </c>
+      <c r="P208" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>427</v>
+      </c>
+      <c r="R208" t="s">
+        <v>59</v>
+      </c>
+      <c r="T208" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B209">
+        <v>20</v>
+      </c>
+      <c r="C209" t="s">
+        <v>134</v>
+      </c>
+      <c r="D209">
+        <v>24</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209" t="s">
+        <v>61</v>
+      </c>
+      <c r="G209" t="s">
+        <v>58</v>
+      </c>
+      <c r="H209" t="s">
+        <v>398</v>
+      </c>
+      <c r="I209" t="s">
+        <v>60</v>
+      </c>
+      <c r="K209" t="s">
+        <v>63</v>
+      </c>
+      <c r="O209">
+        <v>1</v>
+      </c>
+      <c r="P209" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>427</v>
+      </c>
+      <c r="R209" t="s">
+        <v>59</v>
+      </c>
+      <c r="T209" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B210">
+        <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>134</v>
+      </c>
+      <c r="D210">
+        <v>25</v>
+      </c>
+      <c r="E210" t="s">
+        <v>5</v>
+      </c>
+      <c r="F210" t="s">
+        <v>61</v>
+      </c>
+      <c r="G210" t="s">
+        <v>58</v>
+      </c>
+      <c r="H210" t="s">
+        <v>398</v>
+      </c>
+      <c r="I210" t="s">
+        <v>60</v>
+      </c>
+      <c r="K210" t="s">
+        <v>64</v>
+      </c>
+      <c r="O210">
+        <v>8</v>
+      </c>
+      <c r="P210" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>427</v>
+      </c>
+      <c r="R210" t="s">
+        <v>59</v>
+      </c>
+      <c r="T210" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B211">
+        <v>20</v>
+      </c>
+      <c r="C211" t="s">
+        <v>134</v>
+      </c>
+      <c r="D211">
+        <v>26</v>
+      </c>
+      <c r="E211" t="s">
+        <v>5</v>
+      </c>
+      <c r="F211" t="s">
+        <v>61</v>
+      </c>
+      <c r="G211" t="s">
+        <v>58</v>
+      </c>
+      <c r="H211" t="s">
+        <v>398</v>
+      </c>
+      <c r="I211" t="s">
+        <v>60</v>
+      </c>
+      <c r="K211" t="s">
+        <v>65</v>
+      </c>
+      <c r="O211">
+        <v>1</v>
+      </c>
+      <c r="P211" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>427</v>
+      </c>
+      <c r="R211" t="s">
+        <v>59</v>
+      </c>
+      <c r="T211" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B212">
+        <v>20</v>
+      </c>
+      <c r="C212" t="s">
+        <v>134</v>
+      </c>
+      <c r="D212">
+        <v>27</v>
+      </c>
+      <c r="E212" t="s">
+        <v>5</v>
+      </c>
+      <c r="F212" t="s">
+        <v>61</v>
+      </c>
+      <c r="G212" t="s">
+        <v>58</v>
+      </c>
+      <c r="H212" t="s">
+        <v>398</v>
+      </c>
+      <c r="I212" t="s">
+        <v>60</v>
+      </c>
+      <c r="K212" t="s">
+        <v>66</v>
+      </c>
+      <c r="O212">
+        <v>2</v>
+      </c>
+      <c r="P212" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>427</v>
+      </c>
+      <c r="R212" t="s">
+        <v>59</v>
+      </c>
+      <c r="T212" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213" t="s">
+        <v>134</v>
+      </c>
+      <c r="D213">
+        <v>28</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213" t="s">
+        <v>61</v>
+      </c>
+      <c r="G213" t="s">
+        <v>58</v>
+      </c>
+      <c r="H213" t="s">
+        <v>398</v>
+      </c>
+      <c r="I213" t="s">
+        <v>60</v>
+      </c>
+      <c r="K213" t="s">
+        <v>67</v>
+      </c>
+      <c r="O213">
+        <v>2</v>
+      </c>
+      <c r="P213" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>427</v>
+      </c>
+      <c r="R213" t="s">
+        <v>59</v>
+      </c>
+      <c r="T213" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B214">
+        <v>20</v>
+      </c>
+      <c r="C214" t="s">
+        <v>134</v>
+      </c>
+      <c r="D214">
+        <v>29</v>
+      </c>
+      <c r="E214" t="s">
+        <v>5</v>
+      </c>
+      <c r="F214" t="s">
+        <v>61</v>
+      </c>
+      <c r="G214" t="s">
+        <v>58</v>
+      </c>
+      <c r="H214" t="s">
+        <v>398</v>
+      </c>
+      <c r="I214" t="s">
+        <v>60</v>
+      </c>
+      <c r="K214" t="s">
+        <v>68</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
+      <c r="P214" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>427</v>
+      </c>
+      <c r="R214" t="s">
+        <v>59</v>
+      </c>
+      <c r="T214" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B215">
+        <v>20</v>
+      </c>
+      <c r="C215" t="s">
+        <v>134</v>
+      </c>
+      <c r="D215">
+        <v>30</v>
+      </c>
+      <c r="E215" t="s">
+        <v>5</v>
+      </c>
+      <c r="F215" t="s">
+        <v>61</v>
+      </c>
+      <c r="G215" t="s">
+        <v>58</v>
+      </c>
+      <c r="H215" t="s">
+        <v>398</v>
+      </c>
+      <c r="I215" t="s">
+        <v>60</v>
+      </c>
+      <c r="K215" t="s">
+        <v>69</v>
+      </c>
+      <c r="O215">
+        <v>2</v>
+      </c>
+      <c r="P215" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>427</v>
+      </c>
+      <c r="R215" t="s">
+        <v>59</v>
+      </c>
+      <c r="T215" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B216">
+        <v>20</v>
+      </c>
+      <c r="C216" t="s">
+        <v>134</v>
+      </c>
+      <c r="D216">
+        <v>31</v>
+      </c>
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>37</v>
+      </c>
+      <c r="G216" t="s">
+        <v>42</v>
+      </c>
+      <c r="H216" t="s">
+        <v>52</v>
+      </c>
+      <c r="I216" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" t="s">
+        <v>71</v>
+      </c>
+      <c r="O216">
+        <v>64</v>
+      </c>
+      <c r="P216" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>427</v>
+      </c>
+      <c r="R216" t="s">
+        <v>70</v>
+      </c>
+      <c r="T216" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B217">
+        <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>134</v>
+      </c>
+      <c r="D217">
+        <v>32</v>
+      </c>
+      <c r="E217" t="s">
+        <v>72</v>
+      </c>
+      <c r="F217" t="s">
+        <v>75</v>
+      </c>
+      <c r="G217" t="s">
+        <v>73</v>
+      </c>
+      <c r="H217" t="s">
+        <v>52</v>
+      </c>
+      <c r="I217" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" t="s">
+        <v>76</v>
+      </c>
+      <c r="O217">
+        <v>5</v>
+      </c>
+      <c r="P217" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>427</v>
+      </c>
+      <c r="R217" t="s">
+        <v>74</v>
+      </c>
+      <c r="T217" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B218">
+        <v>20</v>
+      </c>
+      <c r="C218" t="s">
+        <v>134</v>
+      </c>
+      <c r="D218">
+        <v>33</v>
+      </c>
+      <c r="E218" t="s">
+        <v>72</v>
+      </c>
+      <c r="F218" t="s">
+        <v>75</v>
+      </c>
+      <c r="G218" t="s">
+        <v>73</v>
+      </c>
+      <c r="H218" t="s">
+        <v>52</v>
+      </c>
+      <c r="I218" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" t="s">
+        <v>77</v>
+      </c>
+      <c r="O218">
+        <v>1</v>
+      </c>
+      <c r="P218" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>427</v>
+      </c>
+      <c r="R218" t="s">
+        <v>74</v>
+      </c>
+      <c r="T218" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B219">
+        <v>20</v>
+      </c>
+      <c r="C219" t="s">
+        <v>134</v>
+      </c>
+      <c r="D219">
+        <v>34</v>
+      </c>
+      <c r="E219" t="s">
+        <v>72</v>
+      </c>
+      <c r="F219" t="s">
+        <v>75</v>
+      </c>
+      <c r="G219" t="s">
+        <v>73</v>
+      </c>
+      <c r="H219" t="s">
+        <v>52</v>
+      </c>
+      <c r="I219" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" t="s">
+        <v>28</v>
+      </c>
+      <c r="O219">
+        <v>1</v>
+      </c>
+      <c r="P219" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>427</v>
+      </c>
+      <c r="R219" t="s">
+        <v>74</v>
+      </c>
+      <c r="T219" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B220">
+        <v>20</v>
+      </c>
+      <c r="C220" t="s">
+        <v>134</v>
+      </c>
+      <c r="D220">
+        <v>35</v>
+      </c>
+      <c r="E220" t="s">
+        <v>72</v>
+      </c>
+      <c r="F220" t="s">
+        <v>79</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" t="s">
+        <v>52</v>
+      </c>
+      <c r="I220" t="s">
+        <v>11</v>
+      </c>
+      <c r="J220" t="s">
+        <v>410</v>
+      </c>
+      <c r="K220" t="s">
+        <v>80</v>
+      </c>
+      <c r="O220">
+        <v>2</v>
+      </c>
+      <c r="P220" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>427</v>
+      </c>
+      <c r="R220" t="s">
+        <v>78</v>
+      </c>
+      <c r="T220" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B221">
+        <v>20</v>
+      </c>
+      <c r="C221" t="s">
+        <v>134</v>
+      </c>
+      <c r="D221">
+        <v>36</v>
+      </c>
+      <c r="E221" t="s">
+        <v>72</v>
+      </c>
+      <c r="F221" t="s">
+        <v>79</v>
+      </c>
+      <c r="G221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H221" t="s">
+        <v>52</v>
+      </c>
+      <c r="I221" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" t="s">
+        <v>81</v>
+      </c>
+      <c r="O221">
+        <v>4</v>
+      </c>
+      <c r="P221" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>427</v>
+      </c>
+      <c r="R221" t="s">
+        <v>78</v>
+      </c>
+      <c r="T221" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B222">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>134</v>
+      </c>
+      <c r="D222">
+        <v>37</v>
+      </c>
+      <c r="E222" t="s">
+        <v>72</v>
+      </c>
+      <c r="F222" t="s">
+        <v>79</v>
+      </c>
+      <c r="G222" t="s">
+        <v>73</v>
+      </c>
+      <c r="H222" t="s">
+        <v>52</v>
+      </c>
+      <c r="I222" t="s">
+        <v>11</v>
+      </c>
+      <c r="J222" t="s">
+        <v>409</v>
+      </c>
+      <c r="K222" t="s">
+        <v>82</v>
+      </c>
+      <c r="O222">
+        <v>45</v>
+      </c>
+      <c r="P222" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>427</v>
+      </c>
+      <c r="R222" t="s">
+        <v>78</v>
+      </c>
+      <c r="T222" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223" t="s">
+        <v>134</v>
+      </c>
+      <c r="D223">
+        <v>38</v>
+      </c>
+      <c r="E223" t="s">
+        <v>72</v>
+      </c>
+      <c r="F223" t="s">
+        <v>37</v>
+      </c>
+      <c r="G223" t="s">
+        <v>83</v>
+      </c>
+      <c r="H223" t="s">
+        <v>398</v>
+      </c>
+      <c r="I223" t="s">
+        <v>84</v>
+      </c>
+      <c r="K223" t="s">
+        <v>28</v>
+      </c>
+      <c r="O223">
+        <v>1</v>
+      </c>
+      <c r="P223" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>427</v>
+      </c>
+      <c r="R223" t="s">
+        <v>74</v>
+      </c>
+      <c r="T223" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B224">
+        <v>20</v>
+      </c>
+      <c r="C224" t="s">
+        <v>134</v>
+      </c>
+      <c r="D224">
+        <v>39</v>
+      </c>
+      <c r="E224" t="s">
+        <v>72</v>
+      </c>
+      <c r="F224" t="s">
+        <v>37</v>
+      </c>
+      <c r="G224" t="s">
+        <v>83</v>
+      </c>
+      <c r="H224" t="s">
+        <v>398</v>
+      </c>
+      <c r="I224" t="s">
+        <v>84</v>
+      </c>
+      <c r="K224" t="s">
+        <v>28</v>
+      </c>
+      <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="P224" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>427</v>
+      </c>
+      <c r="R224" t="s">
+        <v>74</v>
+      </c>
+      <c r="T224" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B225">
+        <v>19</v>
+      </c>
+      <c r="C225" t="s">
+        <v>134</v>
+      </c>
+      <c r="D225">
+        <v>40</v>
+      </c>
+      <c r="E225" t="s">
+        <v>85</v>
+      </c>
+      <c r="F225" t="s">
+        <v>86</v>
+      </c>
+      <c r="G225" t="s">
+        <v>58</v>
+      </c>
+      <c r="H225" t="s">
+        <v>398</v>
+      </c>
+      <c r="I225" t="s">
+        <v>60</v>
+      </c>
+      <c r="K225" t="s">
+        <v>87</v>
+      </c>
+      <c r="O225">
+        <v>5</v>
+      </c>
+      <c r="P225" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>427</v>
+      </c>
+      <c r="R225" t="s">
+        <v>74</v>
+      </c>
+      <c r="T225" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B226">
+        <v>19</v>
+      </c>
+      <c r="C226" t="s">
+        <v>134</v>
+      </c>
+      <c r="D226">
+        <v>41</v>
+      </c>
+      <c r="E226" t="s">
+        <v>85</v>
+      </c>
+      <c r="F226" t="s">
+        <v>89</v>
+      </c>
+      <c r="G226" t="s">
+        <v>58</v>
+      </c>
+      <c r="H226" t="s">
+        <v>398</v>
+      </c>
+      <c r="I226" t="s">
+        <v>60</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>427</v>
+      </c>
+      <c r="R226" t="s">
+        <v>88</v>
+      </c>
+      <c r="T226" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B227">
+        <v>19</v>
+      </c>
+      <c r="C227" t="s">
+        <v>134</v>
+      </c>
+      <c r="D227">
+        <v>42</v>
+      </c>
+      <c r="E227" t="s">
+        <v>85</v>
+      </c>
+      <c r="F227" t="s">
+        <v>37</v>
+      </c>
+      <c r="G227" t="s">
+        <v>42</v>
+      </c>
+      <c r="H227" t="s">
+        <v>52</v>
+      </c>
+      <c r="I227" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>427</v>
+      </c>
+      <c r="R227" t="s">
+        <v>91</v>
+      </c>
+      <c r="T227" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B228">
+        <v>19</v>
+      </c>
+      <c r="C228" t="s">
+        <v>134</v>
+      </c>
+      <c r="D228">
+        <v>43</v>
+      </c>
+      <c r="E228" t="s">
+        <v>85</v>
+      </c>
+      <c r="F228" t="s">
+        <v>37</v>
+      </c>
+      <c r="G228" t="s">
+        <v>42</v>
+      </c>
+      <c r="H228" t="s">
+        <v>52</v>
+      </c>
+      <c r="I228" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>427</v>
+      </c>
+      <c r="R228" t="s">
+        <v>41</v>
+      </c>
+      <c r="T228" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B229">
+        <v>19</v>
+      </c>
+      <c r="C229" t="s">
+        <v>134</v>
+      </c>
+      <c r="D229">
+        <v>44</v>
+      </c>
+      <c r="E229" t="s">
+        <v>93</v>
+      </c>
+      <c r="F229" t="s">
+        <v>37</v>
+      </c>
+      <c r="G229" t="s">
+        <v>94</v>
+      </c>
+      <c r="H229" t="s">
+        <v>398</v>
+      </c>
+      <c r="I229" t="s">
+        <v>397</v>
+      </c>
+      <c r="K229" t="s">
+        <v>97</v>
+      </c>
+      <c r="O229">
+        <v>1</v>
+      </c>
+      <c r="P229" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>427</v>
+      </c>
+      <c r="R229" t="s">
+        <v>95</v>
+      </c>
+      <c r="T229" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B230">
+        <v>19</v>
+      </c>
+      <c r="C230" t="s">
+        <v>134</v>
+      </c>
+      <c r="D230">
+        <v>45</v>
+      </c>
+      <c r="E230" t="s">
+        <v>93</v>
+      </c>
+      <c r="F230" t="s">
+        <v>98</v>
+      </c>
+      <c r="G230" t="s">
+        <v>94</v>
+      </c>
+      <c r="H230" t="s">
+        <v>398</v>
+      </c>
+      <c r="I230" t="s">
+        <v>60</v>
+      </c>
+      <c r="K230" t="s">
+        <v>99</v>
+      </c>
+      <c r="O230">
+        <v>2</v>
+      </c>
+      <c r="P230" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>427</v>
+      </c>
+      <c r="R230" t="s">
+        <v>78</v>
+      </c>
+      <c r="T230" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6359,12 +14714,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6721,13 +15076,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
